--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20101_20181/AVERAGE_1_6_qoq_errors_first_eval_20101_20181.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20101_20181/AVERAGE_1_6_qoq_errors_first_eval_20101_20181.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -37,97 +37,49 @@
     <t>Q6</t>
   </si>
   <si>
-    <t>2010-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2010-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2010-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2010-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2011-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2011-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2011-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2011-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2012-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2012-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2012-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2012-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2013-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2013-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2013-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2013-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2014-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2014-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2014-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2014-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2015-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2015-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2015-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2015-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2016-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2016-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2016-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2016-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2017-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2017-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2017-07-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2017-10-01 00:00:00_diff</t>
@@ -491,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +477,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.1518431416207259</v>
+        <v>-2.020740241776668</v>
       </c>
       <c r="C2">
-        <v>-2.172583383397394</v>
+        <v>-0.5366646080169097</v>
       </c>
       <c r="D2">
-        <v>-0.6885077496376356</v>
+        <v>-0.2034455250553801</v>
       </c>
       <c r="E2">
-        <v>-0.355288666676106</v>
+        <v>-1.33783070765155</v>
       </c>
       <c r="F2">
-        <v>-1.489673849272276</v>
+        <v>0.0421292528262171</v>
       </c>
       <c r="G2">
-        <v>-0.1097138887945088</v>
+        <v>-0.3416665520839498</v>
       </c>
       <c r="H2">
-        <v>-0.4935096937046757</v>
+        <v>0.3432193386903587</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -551,25 +503,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-2.020740241776668</v>
+        <v>0.3332190829615296</v>
       </c>
       <c r="C3">
-        <v>-0.5366646080169097</v>
+        <v>-0.8011660996346401</v>
       </c>
       <c r="D3">
-        <v>-0.2034455250553801</v>
+        <v>0.5787938608431268</v>
       </c>
       <c r="E3">
-        <v>-1.33783070765155</v>
+        <v>0.1949980559329599</v>
       </c>
       <c r="F3">
-        <v>0.0421292528262171</v>
+        <v>0.8798839467072684</v>
       </c>
       <c r="G3">
-        <v>-0.3416665520839498</v>
+        <v>0.1878585623255973</v>
       </c>
       <c r="H3">
-        <v>0.3432193386903587</v>
+        <v>0.4273069063282261</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -577,25 +529,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.484075633759758</v>
+        <v>1.379959960477767</v>
       </c>
       <c r="C4">
-        <v>1.817294716721288</v>
+        <v>0.9961641555676001</v>
       </c>
       <c r="D4">
-        <v>0.6829095341251181</v>
+        <v>1.681050046341908</v>
       </c>
       <c r="E4">
-        <v>2.062869494602885</v>
+        <v>0.9890246619602374</v>
       </c>
       <c r="F4">
-        <v>1.679073689692718</v>
+        <v>1.228473005962866</v>
       </c>
       <c r="G4">
-        <v>2.363959580467027</v>
+        <v>1.265200982722037</v>
       </c>
       <c r="H4">
-        <v>1.671934196085356</v>
+        <v>2.091695057109352</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -603,25 +555,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3332190829615296</v>
+        <v>0.6848858907743085</v>
       </c>
       <c r="C5">
-        <v>-0.8011660996346401</v>
+        <v>-0.007139493607362657</v>
       </c>
       <c r="D5">
-        <v>0.5787938608431268</v>
+        <v>0.2323088503952662</v>
       </c>
       <c r="E5">
-        <v>0.1949980559329599</v>
+        <v>0.2690368271544369</v>
       </c>
       <c r="F5">
-        <v>0.8798839467072684</v>
+        <v>1.095530901541752</v>
       </c>
       <c r="G5">
-        <v>0.1878585623255973</v>
+        <v>0.4397326914201872</v>
       </c>
       <c r="H5">
-        <v>0.4273069063282261</v>
+        <v>-0.2184175483054337</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -629,25 +581,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-1.13438518259617</v>
+        <v>0.2394483440026288</v>
       </c>
       <c r="C6">
-        <v>0.2455747778815972</v>
+        <v>0.2761763207617995</v>
       </c>
       <c r="D6">
-        <v>-0.1382210270285697</v>
+        <v>1.102670395149115</v>
       </c>
       <c r="E6">
-        <v>0.5466648637457387</v>
+        <v>0.4468721850275498</v>
       </c>
       <c r="F6">
-        <v>-0.1453605206359324</v>
+        <v>-0.211278054698071</v>
       </c>
       <c r="G6">
-        <v>0.09408782336669647</v>
+        <v>0.187836893153712</v>
       </c>
       <c r="H6">
-        <v>0.1308158001258672</v>
+        <v>0.1264003510321347</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -655,25 +607,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1.379959960477767</v>
+        <v>0.8264940743873155</v>
       </c>
       <c r="C7">
-        <v>0.9961641555676001</v>
+        <v>0.1706958642657503</v>
       </c>
       <c r="D7">
-        <v>1.681050046341908</v>
+        <v>-0.4874543754598706</v>
       </c>
       <c r="E7">
-        <v>0.9890246619602374</v>
+        <v>-0.0883394276080875</v>
       </c>
       <c r="F7">
-        <v>1.228473005962866</v>
+        <v>-0.1497759697296649</v>
       </c>
       <c r="G7">
-        <v>1.265200982722037</v>
+        <v>-0.5839419048467684</v>
       </c>
       <c r="H7">
-        <v>2.091695057109352</v>
+        <v>0.3948594872323085</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -681,25 +633,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.3837958049101668</v>
+        <v>-0.6581502397256208</v>
       </c>
       <c r="C8">
-        <v>0.3010900858641416</v>
+        <v>-0.2590352918738378</v>
       </c>
       <c r="D8">
-        <v>-0.3909352985175295</v>
+        <v>-0.3204718339954152</v>
       </c>
       <c r="E8">
-        <v>-0.1514869545149007</v>
+        <v>-0.7546377691125187</v>
       </c>
       <c r="F8">
-        <v>-0.11475897775573</v>
+        <v>0.2241636229665582</v>
       </c>
       <c r="G8">
-        <v>0.7117350966315855</v>
+        <v>-0.00295228148136796</v>
       </c>
       <c r="H8">
-        <v>0.05593688651002028</v>
+        <v>-0.6364120109074565</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -707,25 +659,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6848858907743085</v>
+        <v>-0.0614365421215774</v>
       </c>
       <c r="C9">
-        <v>-0.007139493607362657</v>
+        <v>-0.4956024772386809</v>
       </c>
       <c r="D9">
-        <v>0.2323088503952662</v>
+        <v>0.483198914840396</v>
       </c>
       <c r="E9">
-        <v>0.2690368271544369</v>
+        <v>0.2560830103924698</v>
       </c>
       <c r="F9">
-        <v>1.095530901541752</v>
+        <v>-0.3773767190336187</v>
       </c>
       <c r="G9">
-        <v>0.4397326914201872</v>
+        <v>0.0500202396219856</v>
       </c>
       <c r="H9">
-        <v>-0.2184175483054337</v>
+        <v>-0.1163167150661613</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -733,25 +685,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.6920253843816712</v>
+        <v>0.9788013920790769</v>
       </c>
       <c r="C10">
-        <v>-0.4525770403790423</v>
+        <v>0.7516854876311507</v>
       </c>
       <c r="D10">
-        <v>-0.4158490636198716</v>
+        <v>0.1182257582050622</v>
       </c>
       <c r="E10">
-        <v>0.4106450107674439</v>
+        <v>0.5456227168606665</v>
       </c>
       <c r="F10">
-        <v>-0.2451531993541213</v>
+        <v>0.3792857621725196</v>
       </c>
       <c r="G10">
-        <v>-0.9033034390797422</v>
+        <v>0.5019967786133455</v>
       </c>
       <c r="H10">
-        <v>-0.5041884912279591</v>
+        <v>0.5492305151684858</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -759,25 +711,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2394483440026288</v>
+        <v>-0.6334597294260885</v>
       </c>
       <c r="C11">
-        <v>0.2761763207617995</v>
+        <v>-0.2060627707704842</v>
       </c>
       <c r="D11">
-        <v>1.102670395149115</v>
+        <v>-0.3723997254586311</v>
       </c>
       <c r="E11">
-        <v>0.4468721850275498</v>
+        <v>-0.2496887090178053</v>
       </c>
       <c r="F11">
-        <v>-0.211278054698071</v>
+        <v>-0.202454972462665</v>
       </c>
       <c r="G11">
-        <v>0.187836893153712</v>
+        <v>-0.5990737039851166</v>
       </c>
       <c r="H11">
-        <v>0.1264003510321347</v>
+        <v>-0.3450216688613965</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -785,25 +737,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03672797675917072</v>
+        <v>-0.1663369546881469</v>
       </c>
       <c r="C12">
-        <v>0.8632220511464862</v>
+        <v>-0.04362593824732108</v>
       </c>
       <c r="D12">
-        <v>0.207423841024921</v>
+        <v>0.00360779830781921</v>
       </c>
       <c r="E12">
-        <v>-0.4507263987006999</v>
+        <v>-0.3930109332146324</v>
       </c>
       <c r="F12">
-        <v>-0.05161145084891677</v>
+        <v>-0.1389588980909123</v>
       </c>
       <c r="G12">
-        <v>-0.1130479929704942</v>
+        <v>0.0811654917826603</v>
       </c>
       <c r="H12">
-        <v>-0.5472139280875977</v>
+        <v>-0.1546229568040079</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -811,25 +763,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8264940743873155</v>
+        <v>0.04723373655514029</v>
       </c>
       <c r="C13">
-        <v>0.1706958642657503</v>
+        <v>-0.3493849949673113</v>
       </c>
       <c r="D13">
-        <v>-0.4874543754598706</v>
+        <v>-0.09533295984359125</v>
       </c>
       <c r="E13">
-        <v>-0.0883394276080875</v>
+        <v>0.1247914300299814</v>
       </c>
       <c r="F13">
-        <v>-0.1497759697296649</v>
+        <v>-0.1109970185566868</v>
       </c>
       <c r="G13">
-        <v>-0.5839419048467684</v>
+        <v>-0.2899697760274715</v>
       </c>
       <c r="H13">
-        <v>0.3948594872323085</v>
+        <v>-0.3005303062867926</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -837,25 +789,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.6557982101215653</v>
+        <v>0.2540520351237201</v>
       </c>
       <c r="C14">
-        <v>-1.313948449847186</v>
+        <v>0.4741764249972927</v>
       </c>
       <c r="D14">
-        <v>-0.914833501995403</v>
+        <v>0.2383879764106245</v>
       </c>
       <c r="E14">
-        <v>-0.9762700441169804</v>
+        <v>0.05941521893983981</v>
       </c>
       <c r="F14">
-        <v>-1.410435979234084</v>
+        <v>0.04885468868051879</v>
       </c>
       <c r="G14">
-        <v>-0.431634587155007</v>
+        <v>-0.1588644214776113</v>
       </c>
       <c r="H14">
-        <v>-0.6587504916029332</v>
+        <v>0.05834447799729348</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -863,25 +815,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.6581502397256208</v>
+        <v>-0.2357884485866682</v>
       </c>
       <c r="C15">
-        <v>-0.2590352918738378</v>
+        <v>-0.4147612060574529</v>
       </c>
       <c r="D15">
-        <v>-0.3204718339954152</v>
+        <v>-0.4253217363167739</v>
       </c>
       <c r="E15">
-        <v>-0.7546377691125187</v>
+        <v>-0.633040846474904</v>
       </c>
       <c r="F15">
-        <v>0.2241636229665582</v>
+        <v>-0.4158319469999993</v>
       </c>
       <c r="G15">
-        <v>-0.00295228148136796</v>
+        <v>-0.1061457777419378</v>
       </c>
       <c r="H15">
-        <v>-0.6364120109074565</v>
+        <v>-0.2604499115739418</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -889,25 +841,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3991149478517831</v>
+        <v>-0.01056053025932102</v>
       </c>
       <c r="C16">
-        <v>0.3376784057302057</v>
+        <v>-0.2182796404174511</v>
       </c>
       <c r="D16">
-        <v>-0.09648752938689786</v>
+        <v>-0.001070740942546333</v>
       </c>
       <c r="E16">
-        <v>0.882313862692179</v>
+        <v>0.3086154283155151</v>
       </c>
       <c r="F16">
-        <v>0.6551979582442529</v>
+        <v>0.1543112944835111</v>
       </c>
       <c r="G16">
-        <v>0.02173822881816434</v>
+        <v>0.8047377157026943</v>
       </c>
       <c r="H16">
-        <v>0.4491351874737687</v>
+        <v>0.5885726670844852</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -915,25 +867,25 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>-0.0614365421215774</v>
+        <v>0.2172088994749047</v>
       </c>
       <c r="C17">
-        <v>-0.4956024772386809</v>
+        <v>0.5268950687329662</v>
       </c>
       <c r="D17">
-        <v>0.483198914840396</v>
+        <v>0.3725909349009622</v>
       </c>
       <c r="E17">
-        <v>0.2560830103924698</v>
+        <v>1.023017356120145</v>
       </c>
       <c r="F17">
-        <v>-0.3773767190336187</v>
+        <v>0.8068523075019363</v>
       </c>
       <c r="G17">
-        <v>0.0500202396219856</v>
+        <v>0.3998231784669799</v>
       </c>
       <c r="H17">
-        <v>-0.1163167150661613</v>
+        <v>0.8988653956443997</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -941,440 +893,24 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.4341659351171036</v>
+        <v>0.3096861692580615</v>
       </c>
       <c r="C18">
-        <v>0.5446354569619734</v>
+        <v>0.1553820354260574</v>
       </c>
       <c r="D18">
-        <v>0.3175195525140472</v>
+        <v>0.8058084566452406</v>
       </c>
       <c r="E18">
-        <v>-0.3159401769120413</v>
+        <v>0.5896434080270315</v>
       </c>
       <c r="F18">
-        <v>0.111456781743563</v>
+        <v>0.1826142789920752</v>
       </c>
       <c r="G18">
-        <v>-0.05488017294458392</v>
+        <v>0.681656496169495</v>
       </c>
       <c r="H18">
-        <v>0.06783084349624191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.9788013920790769</v>
-      </c>
-      <c r="C19">
-        <v>0.7516854876311507</v>
-      </c>
-      <c r="D19">
-        <v>0.1182257582050622</v>
-      </c>
-      <c r="E19">
-        <v>0.5456227168606665</v>
-      </c>
-      <c r="F19">
-        <v>0.3792857621725196</v>
-      </c>
-      <c r="G19">
-        <v>0.5019967786133455</v>
-      </c>
-      <c r="H19">
-        <v>0.5492305151684858</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>-0.2271159044479262</v>
-      </c>
-      <c r="C20">
-        <v>-0.8605756338740147</v>
-      </c>
-      <c r="D20">
-        <v>-0.4331786752184104</v>
-      </c>
-      <c r="E20">
-        <v>-0.5995156299065573</v>
-      </c>
-      <c r="F20">
-        <v>-0.4768046134657314</v>
-      </c>
-      <c r="G20">
-        <v>-0.4295708769105911</v>
-      </c>
-      <c r="H20">
-        <v>-0.8261896084330428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>-0.6334597294260885</v>
-      </c>
-      <c r="C21">
-        <v>-0.2060627707704842</v>
-      </c>
-      <c r="D21">
-        <v>-0.3723997254586311</v>
-      </c>
-      <c r="E21">
-        <v>-0.2496887090178053</v>
-      </c>
-      <c r="F21">
-        <v>-0.202454972462665</v>
-      </c>
-      <c r="G21">
-        <v>-0.5990737039851166</v>
-      </c>
-      <c r="H21">
-        <v>-0.3450216688613965</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.4273969586556043</v>
-      </c>
-      <c r="C22">
-        <v>0.2610600039674574</v>
-      </c>
-      <c r="D22">
-        <v>0.3837710204082833</v>
-      </c>
-      <c r="E22">
-        <v>0.4310047569634236</v>
-      </c>
-      <c r="F22">
-        <v>0.03438602544097191</v>
-      </c>
-      <c r="G22">
-        <v>0.288438060564692</v>
-      </c>
-      <c r="H22">
-        <v>0.5085624504382646</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>-0.1663369546881469</v>
-      </c>
-      <c r="C23">
-        <v>-0.04362593824732108</v>
-      </c>
-      <c r="D23">
-        <v>0.00360779830781921</v>
-      </c>
-      <c r="E23">
-        <v>-0.3930109332146324</v>
-      </c>
-      <c r="F23">
-        <v>-0.1389588980909123</v>
-      </c>
-      <c r="G23">
-        <v>0.0811654917826603</v>
-      </c>
-      <c r="H23">
-        <v>-0.1546229568040079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.1227110164408258</v>
-      </c>
-      <c r="C24">
-        <v>0.1699447529959661</v>
-      </c>
-      <c r="D24">
-        <v>-0.2266739785264855</v>
-      </c>
-      <c r="E24">
-        <v>0.02737805659723458</v>
-      </c>
-      <c r="F24">
-        <v>0.2475024464708072</v>
-      </c>
-      <c r="G24">
-        <v>0.01171399788413902</v>
-      </c>
-      <c r="H24">
-        <v>-0.1672587595866457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.04723373655514029</v>
-      </c>
-      <c r="C25">
-        <v>-0.3493849949673113</v>
-      </c>
-      <c r="D25">
-        <v>-0.09533295984359125</v>
-      </c>
-      <c r="E25">
-        <v>0.1247914300299814</v>
-      </c>
-      <c r="F25">
-        <v>-0.1109970185566868</v>
-      </c>
-      <c r="G25">
-        <v>-0.2899697760274715</v>
-      </c>
-      <c r="H25">
-        <v>-0.3005303062867926</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>-0.3966187315224516</v>
-      </c>
-      <c r="C26">
-        <v>-0.1425666963987315</v>
-      </c>
-      <c r="D26">
-        <v>0.07755769347484109</v>
-      </c>
-      <c r="E26">
-        <v>-0.1582307551118271</v>
-      </c>
-      <c r="F26">
-        <v>-0.3372035125826118</v>
-      </c>
-      <c r="G26">
-        <v>-0.3477640428419329</v>
-      </c>
-      <c r="H26">
-        <v>-0.5554831530000629</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.2540520351237201</v>
-      </c>
-      <c r="C27">
-        <v>0.4741764249972927</v>
-      </c>
-      <c r="D27">
-        <v>0.2383879764106245</v>
-      </c>
-      <c r="E27">
-        <v>0.05941521893983981</v>
-      </c>
-      <c r="F27">
-        <v>0.04885468868051879</v>
-      </c>
-      <c r="G27">
-        <v>-0.1588644214776113</v>
-      </c>
-      <c r="H27">
-        <v>0.05834447799729348</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.2201243898735726</v>
-      </c>
-      <c r="C28">
-        <v>-0.01566405871309556</v>
-      </c>
-      <c r="D28">
-        <v>-0.1946368161838803</v>
-      </c>
-      <c r="E28">
-        <v>-0.2051973464432013</v>
-      </c>
-      <c r="F28">
-        <v>-0.4129164566013314</v>
-      </c>
-      <c r="G28">
-        <v>-0.1957075571264266</v>
-      </c>
-      <c r="H28">
-        <v>0.1139786121316348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>-0.2357884485866682</v>
-      </c>
-      <c r="C29">
-        <v>-0.4147612060574529</v>
-      </c>
-      <c r="D29">
-        <v>-0.4253217363167739</v>
-      </c>
-      <c r="E29">
-        <v>-0.633040846474904</v>
-      </c>
-      <c r="F29">
-        <v>-0.4158319469999993</v>
-      </c>
-      <c r="G29">
-        <v>-0.1061457777419378</v>
-      </c>
-      <c r="H29">
-        <v>-0.2604499115739418</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>-0.1789727574707847</v>
-      </c>
-      <c r="C30">
-        <v>-0.1895332877301057</v>
-      </c>
-      <c r="D30">
-        <v>-0.3972523978882358</v>
-      </c>
-      <c r="E30">
-        <v>-0.1800434984133311</v>
-      </c>
-      <c r="F30">
-        <v>0.1296426708447304</v>
-      </c>
-      <c r="G30">
-        <v>-0.02466146298727362</v>
-      </c>
-      <c r="H30">
-        <v>0.6257649582319096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>-0.01056053025932102</v>
-      </c>
-      <c r="C31">
-        <v>-0.2182796404174511</v>
-      </c>
-      <c r="D31">
-        <v>-0.001070740942546333</v>
-      </c>
-      <c r="E31">
-        <v>0.3086154283155151</v>
-      </c>
-      <c r="F31">
-        <v>0.1543112944835111</v>
-      </c>
-      <c r="G31">
-        <v>0.8047377157026943</v>
-      </c>
-      <c r="H31">
-        <v>0.5885726670844852</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>-0.20771911015813</v>
-      </c>
-      <c r="C32">
-        <v>0.009489789316774688</v>
-      </c>
-      <c r="D32">
-        <v>0.3191759585748362</v>
-      </c>
-      <c r="E32">
-        <v>0.1648718247428321</v>
-      </c>
-      <c r="F32">
-        <v>0.8152982459620153</v>
-      </c>
-      <c r="G32">
-        <v>0.5991331973438062</v>
-      </c>
-      <c r="H32">
-        <v>0.1921040683088499</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.2172088994749047</v>
-      </c>
-      <c r="C33">
-        <v>0.5268950687329662</v>
-      </c>
-      <c r="D33">
-        <v>0.3725909349009622</v>
-      </c>
-      <c r="E33">
-        <v>1.023017356120145</v>
-      </c>
-      <c r="F33">
-        <v>0.8068523075019363</v>
-      </c>
-      <c r="G33">
-        <v>0.3998231784669799</v>
-      </c>
-      <c r="H33">
-        <v>0.8988653956443997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.3096861692580615</v>
-      </c>
-      <c r="C34">
-        <v>0.1553820354260574</v>
-      </c>
-      <c r="D34">
-        <v>0.8058084566452406</v>
-      </c>
-      <c r="E34">
-        <v>0.5896434080270315</v>
-      </c>
-      <c r="F34">
-        <v>0.1826142789920752</v>
-      </c>
-      <c r="G34">
-        <v>0.681656496169495</v>
-      </c>
-      <c r="H34">
         <v>0.5228075830139824</v>
       </c>
     </row>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20101_20181/AVERAGE_1_6_qoq_errors_first_eval_20101_20181.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20101_20181/AVERAGE_1_6_qoq_errors_first_eval_20101_20181.xlsx
@@ -517,12 +517,6 @@
       <c r="F3">
         <v>0.8798839467072684</v>
       </c>
-      <c r="G3">
-        <v>0.1878585623255973</v>
-      </c>
-      <c r="H3">
-        <v>0.4273069063282261</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
@@ -569,12 +563,6 @@
       <c r="F5">
         <v>1.095530901541752</v>
       </c>
-      <c r="G5">
-        <v>0.4397326914201872</v>
-      </c>
-      <c r="H5">
-        <v>-0.2184175483054337</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -621,12 +609,6 @@
       <c r="F7">
         <v>-0.1497759697296649</v>
       </c>
-      <c r="G7">
-        <v>-0.5839419048467684</v>
-      </c>
-      <c r="H7">
-        <v>0.3948594872323085</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -673,12 +655,6 @@
       <c r="F9">
         <v>-0.3773767190336187</v>
       </c>
-      <c r="G9">
-        <v>0.0500202396219856</v>
-      </c>
-      <c r="H9">
-        <v>-0.1163167150661613</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -725,12 +701,6 @@
       <c r="F11">
         <v>-0.202454972462665</v>
       </c>
-      <c r="G11">
-        <v>-0.5990737039851166</v>
-      </c>
-      <c r="H11">
-        <v>-0.3450216688613965</v>
-      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -777,12 +747,6 @@
       <c r="F13">
         <v>-0.1109970185566868</v>
       </c>
-      <c r="G13">
-        <v>-0.2899697760274715</v>
-      </c>
-      <c r="H13">
-        <v>-0.3005303062867926</v>
-      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -829,12 +793,6 @@
       <c r="F15">
         <v>-0.4158319469999993</v>
       </c>
-      <c r="G15">
-        <v>-0.1061457777419378</v>
-      </c>
-      <c r="H15">
-        <v>-0.2604499115739418</v>
-      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -880,12 +838,6 @@
       </c>
       <c r="F17">
         <v>0.8068523075019363</v>
-      </c>
-      <c r="G17">
-        <v>0.3998231784669799</v>
-      </c>
-      <c r="H17">
-        <v>0.8988653956443997</v>
       </c>
     </row>
     <row r="18" spans="1:8">
